--- a/DATA_goal/Junction_Flooding_183.xlsx
+++ b/DATA_goal/Junction_Flooding_183.xlsx
@@ -464,11 +464,11 @@
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
@@ -655,103 +655,103 @@
         <v>41615.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>19.02</v>
+        <v>1.9</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>12.75</v>
+        <v>1.28</v>
       </c>
       <c r="D2" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E2" s="4" t="n">
         <v>4.04</v>
       </c>
-      <c r="E2" s="4" t="n">
-        <v>40.42</v>
-      </c>
       <c r="F2" s="4" t="n">
-        <v>32.45</v>
+        <v>3.24</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>14.97</v>
+        <v>1.5</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>47.39</v>
+        <v>4.74</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>23.04</v>
+        <v>2.3</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>9.6</v>
+        <v>0.96</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>14.48</v>
+        <v>1.45</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>15.92</v>
+        <v>1.59</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>16.57</v>
+        <v>1.66</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.78</v>
+        <v>0.48</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>14.89</v>
+        <v>1.49</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>20.77</v>
+        <v>2.08</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12.74</v>
+        <v>1.27</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.45</v>
+        <v>0.35</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.25</v>
+        <v>0.22</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>219.26</v>
+        <v>21.93</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>41.39</v>
+        <v>4.14</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>13.74</v>
+        <v>1.37</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>27.25</v>
+        <v>2.72</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>13.88</v>
+        <v>1.39</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.05</v>
+        <v>0.3</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>24.04</v>
+        <v>2.4</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.14</v>
+        <v>1.21</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.02</v>
+        <v>1.1</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>12.93</v>
+        <v>1.29</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>16.41</v>
+        <v>1.64</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.46</v>
+        <v>0.35</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>42.03</v>
+        <v>4.2</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.56</v>
+        <v>0.76</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>17.18</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41615.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>9.130000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.14</v>
+        <v>0.61</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.57</v>
+        <v>0.16</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>19.62</v>
+        <v>1.96</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>15.61</v>
+        <v>1.56</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.18</v>
+        <v>0.72</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>29.99</v>
+        <v>3</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>11.05</v>
+        <v>1.11</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.64</v>
+        <v>0.46</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>6.77</v>
+        <v>0.68</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>7.83</v>
+        <v>0.78</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.3</v>
+        <v>0.23</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.14</v>
+        <v>0.71</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>9.98</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.33</v>
+        <v>0.63</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.49</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.85</v>
+        <v>0.09</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>101.42</v>
+        <v>10.14</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>20.11</v>
+        <v>2.01</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.59</v>
+        <v>0.66</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>13.14</v>
+        <v>1.31</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>6.74</v>
+        <v>0.67</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.52</v>
+        <v>0.15</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>14.3</v>
+        <v>1.43</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.82</v>
+        <v>0.58</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.39</v>
+        <v>0.54</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.3</v>
+        <v>0.63</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.039999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>27.48</v>
+        <v>2.75</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.56</v>
+        <v>0.36</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>8.24</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41615.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.029999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.32</v>
+        <v>0.63</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>19.54</v>
+        <v>1.95</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>15.69</v>
+        <v>1.57</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.11</v>
+        <v>0.71</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>28.08</v>
+        <v>2.81</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>10.94</v>
+        <v>1.09</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.69</v>
+        <v>0.47</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.85</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.84</v>
+        <v>0.78</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.16</v>
+        <v>0.82</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.27</v>
+        <v>0.23</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.07</v>
+        <v>0.71</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>9.92</v>
+        <v>0.99</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.18</v>
+        <v>0.62</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>100.25</v>
+        <v>10.03</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>19.78</v>
+        <v>1.98</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.52</v>
+        <v>0.65</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>13.04</v>
+        <v>1.3</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.79</v>
+        <v>0.68</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.33</v>
+        <v>0.13</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>13.41</v>
+        <v>1.34</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.76</v>
+        <v>0.58</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.25</v>
+        <v>0.53</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.15</v>
+        <v>0.62</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.119999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>25.44</v>
+        <v>2.54</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.57</v>
+        <v>0.36</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.16</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41615.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.45</v>
+        <v>1.35</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.76</v>
+        <v>0.98</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>29.2</v>
+        <v>2.92</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>23.77</v>
+        <v>2.38</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.59</v>
+        <v>1.06</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>39.83</v>
+        <v>3.98</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>16.29</v>
+        <v>1.63</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.15</v>
+        <v>0.71</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.54</v>
+        <v>1.05</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.72</v>
+        <v>1.17</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.31</v>
+        <v>1.23</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.38</v>
+        <v>0.34</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.53</v>
+        <v>1.05</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.9</v>
+        <v>1.49</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.99</v>
+        <v>0.9</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>152.9</v>
+        <v>15.29</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>29.4</v>
+        <v>2.94</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>19.64</v>
+        <v>1.96</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.29</v>
+        <v>1.03</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.69</v>
+        <v>0.17</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>19.43</v>
+        <v>1.94</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.58</v>
+        <v>0.86</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.68</v>
+        <v>0.77</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.02</v>
+        <v>0.9</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>12.25</v>
+        <v>1.22</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>36.04</v>
+        <v>3.6</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.42</v>
+        <v>0.54</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>12.15</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41615.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>17.2</v>
+        <v>1.72</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>12.65</v>
+        <v>1.26</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>37.37</v>
+        <v>3.74</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>30.59</v>
+        <v>3.06</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>13.54</v>
+        <v>1.35</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>51.75</v>
+        <v>5.17</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>20.83</v>
+        <v>2.08</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>9.23</v>
+        <v>0.92</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>13.65</v>
+        <v>1.37</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>15.01</v>
+        <v>1.5</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>15.8</v>
+        <v>1.58</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>4.32</v>
+        <v>0.43</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>13.46</v>
+        <v>1.35</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>19.14</v>
+        <v>1.91</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>11.37</v>
+        <v>1.14</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>197.54</v>
+        <v>19.75</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>37.63</v>
+        <v>3.76</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>12.42</v>
+        <v>1.24</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>25.26</v>
+        <v>2.53</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>13.24</v>
+        <v>1.32</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.01</v>
+        <v>0.2</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>25.27</v>
+        <v>2.53</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>10.97</v>
+        <v>1.1</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>9.75</v>
+        <v>0.98</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>11.46</v>
+        <v>1.15</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>15.72</v>
+        <v>1.57</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>46.95</v>
+        <v>4.69</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>6.98</v>
+        <v>0.7</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>15.53</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41615.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>11.53</v>
+        <v>1.15</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>8.44</v>
+        <v>0.84</v>
       </c>
       <c r="D7" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AA7" s="4" t="n">
         <v>0.74</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>25.05</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>20.44</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>37.22</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>13.96</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>10.59</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>12.83</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>130.02</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>16.95</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>7.36</v>
-      </c>
       <c r="AB7" s="4" t="n">
-        <v>6.56</v>
+        <v>0.66</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>7.7</v>
+        <v>0.77</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>10.53</v>
+        <v>1.05</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>33.89</v>
+        <v>3.39</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>4.66</v>
+        <v>0.47</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41615.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>18.35</v>
+        <v>1.84</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>13.59</v>
+        <v>1.36</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>39.9</v>
+        <v>3.99</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>32.75</v>
+        <v>3.28</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>14.44</v>
+        <v>1.44</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>54.85</v>
+        <v>5.48</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>22.22</v>
+        <v>2.22</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>14.67</v>
+        <v>1.47</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>16.02</v>
+        <v>1.6</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>16.9</v>
+        <v>1.69</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>4.61</v>
+        <v>0.46</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>14.36</v>
+        <v>1.44</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>20.46</v>
+        <v>2.05</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>12.06</v>
+        <v>1.21</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>211.28</v>
+        <v>21.13</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>40.13</v>
+        <v>4.01</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>13.26</v>
+        <v>1.33</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>27.02</v>
+        <v>2.7</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>14.18</v>
+        <v>1.42</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.06</v>
+        <v>0.21</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>26.82</v>
+        <v>2.68</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>11.71</v>
+        <v>1.17</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>10.36</v>
+        <v>1.04</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>12.18</v>
+        <v>1.22</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>16.81</v>
+        <v>1.68</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>49.7</v>
+        <v>4.97</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>7.48</v>
+        <v>0.75</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>16.57</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41615.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>1.63</v>
+        <v>0.16</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>1.06</v>
+        <v>0.11</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>3.54</v>
+        <v>0.35</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>2.71</v>
+        <v>0.27</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>12.52</v>
+        <v>1.25</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>1.98</v>
+        <v>0.2</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>1.11</v>
+        <v>0.11</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>1.43</v>
+        <v>0.14</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>1.47</v>
+        <v>0.15</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>1.28</v>
+        <v>0.13</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>1.96</v>
+        <v>0.2</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>1.21</v>
+        <v>0.12</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="S9" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="X9" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Y9" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AB9" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AC9" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AD9" s="4" t="n">
         <v>0.15</v>
       </c>
-      <c r="T9" s="4" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.47</v>
-      </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>12</v>
+        <v>1.2</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>1.49</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41615.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>9.800000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>7.21</v>
+        <v>0.72</v>
       </c>
       <c r="D10" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="N10" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="R10" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="V10" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X10" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Y10" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA10" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AB10" s="4" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="E10" s="4" t="n">
-        <v>21.31</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>17.42</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>27.47</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>8.56</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>10.86</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>109.37</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>21.28</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>14.26</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>13.35</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>5.55</v>
-      </c>
       <c r="AC10" s="4" t="n">
-        <v>6.53</v>
+        <v>0.65</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>8.970000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>24.52</v>
+        <v>2.45</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>3.97</v>
+        <v>0.4</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>8.85</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_183.xlsx
+++ b/DATA_goal/Junction_Flooding_183.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41615.34027777778</v>
+        <v>44864.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F2" s="4" t="n">
         <v>1.9</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="G2" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="P2" s="4" t="n">
         <v>1.28</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>2.08</v>
-      </c>
       <c r="Q2" s="4" t="n">
-        <v>1.27</v>
+        <v>0.85</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.35</v>
+        <v>0.27</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>21.93</v>
+        <v>13.57</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.14</v>
+        <v>2.6</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.37</v>
+        <v>0.87</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.72</v>
+        <v>1.65</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.39</v>
+        <v>0.85</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="Z2" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AF2" s="4" t="n">
         <v>2.4</v>
       </c>
-      <c r="AA2" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>4.2</v>
-      </c>
       <c r="AG2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.45</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.72</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41615.34722222222</v>
+        <v>44864.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.91</v>
+        <v>0.46</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.61</v>
+        <v>0.31</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.96</v>
+        <v>1.04</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.56</v>
+        <v>0.74</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.72</v>
+        <v>0.35</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3</v>
+        <v>1.63</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.11</v>
+        <v>0.58</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.46</v>
+        <v>0.23</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.68</v>
+        <v>0.3</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.78</v>
+        <v>0.41</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.23</v>
+        <v>0.12</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.71</v>
+        <v>0.38</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1</v>
+        <v>0.51</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.63</v>
+        <v>0.36</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>10.14</v>
+        <v>4.99</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.01</v>
+        <v>1.07</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.66</v>
+        <v>0.35</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.31</v>
+        <v>0.67</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.67</v>
+        <v>0.34</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.43</v>
+        <v>0.82</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.58</v>
+        <v>0.31</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.54</v>
+        <v>0.3</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.63</v>
+        <v>0.34</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.8</v>
+        <v>0.43</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.75</v>
+        <v>1.55</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.36</v>
+        <v>0.17</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.82</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41615.35416666666</v>
+        <v>44864.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.9</v>
+        <v>0.61</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.63</v>
+        <v>0.44</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.95</v>
+        <v>1.36</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.57</v>
+        <v>1.04</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.71</v>
+        <v>0.47</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.81</v>
+        <v>1.86</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.09</v>
+        <v>0.76</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.47</v>
+        <v>0.32</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.54</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.82</v>
+        <v>0.59</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.71</v>
+        <v>0.49</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.99</v>
+        <v>0.68</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.62</v>
+        <v>0.44</v>
       </c>
       <c r="R4" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="S4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.13</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>1.34</v>
+        <v>0.91</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.58</v>
+        <v>0.4</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.53</v>
+        <v>0.37</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.62</v>
+        <v>0.43</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.54</v>
+        <v>1.71</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.36</v>
+        <v>0.24</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.82</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41615.36111111111</v>
+        <v>44864.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.35</v>
+        <v>0.18</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.98</v>
+        <v>0.12</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.92</v>
+        <v>0.42</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.38</v>
+        <v>0.28</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.06</v>
+        <v>0.14</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.98</v>
+        <v>0.87</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.63</v>
+        <v>0.23</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.09</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.05</v>
+        <v>0.11</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.17</v>
+        <v>0.17</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.23</v>
+        <v>0.19</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.34</v>
+        <v>0.05</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.05</v>
+        <v>0.15</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.49</v>
+        <v>0.21</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.15</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="S5" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AG5" s="4" t="n">
         <v>0.06</v>
       </c>
-      <c r="T5" s="4" t="n">
-        <v>15.29</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="Y5" s="4" t="n">
+      <c r="AH5" s="4" t="n">
         <v>0.17</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>1.21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41615.36805555555</v>
+        <v>44864.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.72</v>
+        <v>13.36</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.26</v>
+        <v>9.94</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.1</v>
+        <v>0.88</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3.74</v>
+        <v>29.25</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>3.06</v>
+        <v>23.68</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.35</v>
+        <v>10.46</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>5.17</v>
+        <v>36.38</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.08</v>
+        <v>16.29</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.92</v>
+        <v>7.16</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.37</v>
+        <v>10.56</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.5</v>
+        <v>11.73</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.58</v>
+        <v>12.52</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.43</v>
+        <v>3.38</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.35</v>
+        <v>10.53</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.91</v>
+        <v>14.89</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.14</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>19.75</v>
+        <v>152.87</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>3.76</v>
+        <v>29.26</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.24</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.53</v>
+        <v>19.57</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.32</v>
+        <v>10.31</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2.53</v>
+        <v>18.23</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.1</v>
+        <v>8.58</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.98</v>
+        <v>7.65</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.15</v>
+        <v>8.98</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.57</v>
+        <v>12.33</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>4.69</v>
+        <v>32.78</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.7</v>
+        <v>5.42</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41615.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41615.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.66</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41615.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41615.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41615.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>19.12</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>14.23</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>41.58</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>34.21</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>15.05</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>55.81</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>23.15</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>15.36</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>16.69</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>17.63</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>14.96</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>21.34</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>220.43</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>41.79</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>13.81</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>14.81</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>27.61</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>12.66</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>17.53</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>50.61</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>17.27</v>
+        <v>12.15</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_183.xlsx
+++ b/DATA_goal/Junction_Flooding_183.xlsx
@@ -655,103 +655,103 @@
         <v>44864.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.18</v>
+        <v>11.79</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.79</v>
+        <v>7.95</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.45</v>
       </c>
       <c r="E2" s="4" t="n">
+        <v>25.67</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>14.54</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>12.78</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>135.67</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>25.95</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>2.57</v>
       </c>
-      <c r="F2" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>13.57</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.26</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>1.47</v>
+        <v>14.65</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.77</v>
+        <v>7.66</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.71</v>
+        <v>7.14</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.07</v>
+        <v>10.67</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.71</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.4</v>
+        <v>24.03</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.51</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.08</v>
+        <v>10.85</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44864.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.64</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.12</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.37</v>
       </c>
       <c r="E3" s="4" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>16.32</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>49.93</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>1.04</v>
       </c>
-      <c r="F3" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.1</v>
-      </c>
       <c r="Z3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.3</v>
+        <v>2.96</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.42</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.3</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.55</v>
+        <v>15.53</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.72</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44864.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.11</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.39</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.36</v>
+        <v>13.56</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.38</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.72</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.86</v>
+        <v>18.63</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.56</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.16</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.47</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.42</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.59</v>
+        <v>5.88</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.57</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.49</v>
+        <v>4.89</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.77</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.43</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>6.7</v>
+        <v>67.04000000000001</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.36</v>
+        <v>13.64</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.51</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.88</v>
+        <v>8.82</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.62</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.69</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.3</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.57</v>
+        <v>5.68</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.71</v>
+        <v>17.08</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.38</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44864.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.81</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.17</v>
       </c>
       <c r="F5" s="4" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.28</v>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="T5" s="4" t="n">
-        <v>1.56</v>
+        <v>15.62</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.44</v>
+        <v>4.44</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.39</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.79</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.38</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.11</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.23</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.23</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.41</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.73</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.83</v>
+        <v>8.34</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.65</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_183.xlsx
+++ b/DATA_goal/Junction_Flooding_183.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,31 +655,31 @@
         <v>44864.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>11.79</v>
+        <v>11.794</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7.95</v>
+        <v>7.946</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.45</v>
+        <v>3.447</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>25.67</v>
+        <v>25.671</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>18.99</v>
+        <v>18.994</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>8.99</v>
+        <v>8.994999999999999</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>26.45</v>
+        <v>26.449</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>14.54</v>
+        <v>14.543</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.68</v>
+        <v>5.683</v>
       </c>
       <c r="K2" s="4" t="n">
         <v>8.23</v>
@@ -688,16 +688,16 @@
         <v>10.12</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>10.98</v>
+        <v>10.985</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.01</v>
+        <v>3.013</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>9.4</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>12.78</v>
+        <v>12.777</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>8.539999999999999</v>
@@ -706,52 +706,52 @@
         <v>2.71</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.49</v>
+        <v>1.486</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>135.67</v>
+        <v>135.674</v>
       </c>
       <c r="U2" s="4" t="n">
         <v>25.95</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>8.68</v>
+        <v>8.676</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>16.48</v>
+        <v>16.478</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>8.538</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.57</v>
+        <v>2.569</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>14.65</v>
+        <v>14.652</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>7.66</v>
+        <v>7.663</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.14</v>
+        <v>7.143</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>8.202</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>10.67</v>
+        <v>10.671</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.71</v>
+        <v>2.707</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>24.03</v>
+        <v>24.031</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.51</v>
+        <v>4.513</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>10.85</v>
+        <v>10.846</v>
       </c>
     </row>
     <row r="3">
@@ -759,100 +759,100 @@
         <v>44864.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.64</v>
+        <v>4.641</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.12</v>
+        <v>3.119</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.37</v>
+        <v>1.365</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>10.37</v>
+        <v>10.374</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>7.37</v>
+        <v>7.371</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.51</v>
+        <v>3.511</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>16.32</v>
+        <v>16.321</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.82</v>
+        <v>5.817</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.29</v>
+        <v>2.288</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.04</v>
+        <v>3.039</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.11</v>
+        <v>4.112</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.55</v>
+        <v>4.545</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.21</v>
+        <v>1.214</v>
       </c>
       <c r="O3" s="4" t="n">
         <v>3.76</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>5.12</v>
+        <v>5.123</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.64</v>
+        <v>3.641</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.26</v>
+        <v>1.261</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.65</v>
+        <v>0.645</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>49.93</v>
+        <v>49.929</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>10.7</v>
+        <v>10.697</v>
       </c>
       <c r="V3" s="4" t="n">
         <v>3.47</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>6.69</v>
+        <v>6.688</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.41</v>
+        <v>3.406</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.04</v>
+        <v>1.037</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.220000000000001</v>
+        <v>8.218999999999999</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.07</v>
+        <v>3.065</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.96</v>
+        <v>2.962</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.42</v>
+        <v>3.421</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.3</v>
+        <v>4.299</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.14</v>
+        <v>1.141</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>15.53</v>
+        <v>15.531</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.72</v>
+        <v>1.716</v>
       </c>
       <c r="AH3" s="4" t="n">
         <v>4.34</v>
@@ -863,46 +863,46 @@
         <v>44864.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.11</v>
+        <v>6.114</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.39</v>
+        <v>4.386</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.96</v>
+        <v>0.959</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>13.56</v>
+        <v>13.557</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>10.38</v>
+        <v>10.382</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.72</v>
+        <v>4.723</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>18.63</v>
+        <v>18.628</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>7.56</v>
+        <v>7.562</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.16</v>
+        <v>3.157</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.47</v>
+        <v>4.472</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.42</v>
+        <v>5.418</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.88</v>
+        <v>5.883</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.57</v>
+        <v>1.569</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.89</v>
+        <v>4.888</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>6.77</v>
@@ -911,52 +911,52 @@
         <v>4.43</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.86</v>
+        <v>0.863</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.5</v>
+        <v>0.501</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>67.04000000000001</v>
+        <v>67.045</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>13.64</v>
+        <v>13.637</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.51</v>
+        <v>4.511</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>8.82</v>
+        <v>8.817</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.62</v>
+        <v>4.618</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>9.130000000000001</v>
+        <v>9.134</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.98</v>
+        <v>3.985</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.69</v>
+        <v>3.689</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.3</v>
+        <v>4.304</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.68</v>
+        <v>5.679</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.724</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>17.08</v>
+        <v>17.078</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.38</v>
+        <v>2.385</v>
       </c>
       <c r="AH4" s="4" t="n">
         <v>5.64</v>
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>1.74</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44864.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>13.36</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>9.94</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>29.25</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>23.68</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>36.38</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>16.29</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>10.56</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>14.89</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>152.87</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>29.26</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>19.57</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.31</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>18.23</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.58</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>32.78</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>12.15</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_183.xlsx
+++ b/DATA_goal/Junction_Flooding_183.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44864.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.81</v>
+        <v>1.812</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.22</v>
+        <v>1.225</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.61</v>
+        <v>0.609</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.17</v>
+        <v>4.165</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.81</v>
+        <v>2.814</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.37</v>
+        <v>1.365</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>8.710000000000001</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.33</v>
+        <v>2.327</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.1</v>
+        <v>1.099</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.66</v>
+        <v>1.659</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.88</v>
+        <v>1.878</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.5</v>
+        <v>0.497</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.5</v>
+        <v>1.504</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.08</v>
+        <v>2.085</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.54</v>
+        <v>1.543</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.63</v>
+        <v>0.628</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.28</v>
+        <v>0.284</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>15.62</v>
+        <v>15.616</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.44</v>
+        <v>4.444</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.39</v>
+        <v>1.388</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.79</v>
+        <v>2.786</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.38</v>
+        <v>1.385</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.47</v>
+        <v>0.469</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.11</v>
+        <v>4.112</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.23</v>
+        <v>1.226</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.23</v>
+        <v>1.231</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.41</v>
+        <v>1.414</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.73</v>
+        <v>1.732</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>8.34</v>
+        <v>8.343</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.65</v>
+        <v>0.645</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>1.74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44864.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>13.36</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>29.25</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>36.38</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>16.29</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>14.89</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>152.87</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>29.26</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>19.57</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>18.23</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>8.58</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>32.78</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>12.15</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_183.xlsx
+++ b/DATA_goal/Junction_Flooding_183.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44864.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.812</v>
+        <v>1.81</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.225</v>
+        <v>1.22</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.609</v>
+        <v>0.61</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.165</v>
+        <v>4.17</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.814</v>
+        <v>2.81</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.365</v>
+        <v>1.37</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>8.710000000000001</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.327</v>
+        <v>2.33</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.9419999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.099</v>
+        <v>1.1</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.659</v>
+        <v>1.66</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.878</v>
+        <v>1.88</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.497</v>
+        <v>0.5</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.504</v>
+        <v>1.5</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.085</v>
+        <v>2.08</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.543</v>
+        <v>1.54</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.628</v>
+        <v>0.63</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.284</v>
+        <v>0.28</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>15.616</v>
+        <v>15.62</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.444</v>
+        <v>4.44</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.388</v>
+        <v>1.39</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.786</v>
+        <v>2.79</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.385</v>
+        <v>1.38</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.469</v>
+        <v>0.47</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.112</v>
+        <v>4.11</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.226</v>
+        <v>1.23</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.231</v>
+        <v>1.23</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.414</v>
+        <v>1.41</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.732</v>
+        <v>1.73</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>8.343</v>
+        <v>8.34</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.645</v>
+        <v>0.65</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>1.74</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44864.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>13.36</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>9.94</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>29.25</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>23.68</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>36.38</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>16.29</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>10.56</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>14.89</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>152.87</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>29.26</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>19.57</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.31</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>18.23</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.58</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>32.78</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>12.15</v>
       </c>
     </row>
   </sheetData>
